--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_고려 왕대사.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_고려 왕대사.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1476,14 +1476,39 @@
           <t>성종</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>20230313</t>
-        </is>
+      <c r="D42" t="n">
+        <v>20230313</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>18시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">재면법 : 흉작의 정도에 따라 세금 감면 </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>광종</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20230314</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>08시 27분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_고려 왕대사.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_고려 왕대사.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1501,14 +1501,189 @@
           <t>성종</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>20230314</t>
-        </is>
+      <c r="D43" t="n">
+        <v>20230314</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>08시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2성 6부 완성 : 성종 대에 틀을 마련한 2성 6부의 중앙 통치 제도 완성</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>문종</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>한양을 남경으로 승격(동경 ⇒ 남경 중시)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>문종</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>의창 : 춘대추납, 전국 군현에 설치</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>태조</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>중추원 · 삼사(송 관제 모방) 설치</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>현종</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3경 12목 10도 체제</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>혜종</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>공음전 제도 정비 : 5품 이상의 관리에게 세습 토지인 공음전을 지급</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>문종</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230315</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>문신월과법 : 관료들의 실력 향상 목적, 중앙 문신에게 매월 시 3수 · 부 1편, 지방 문신에게 매년 시 30수 · 부 1편을 제출하도록 함</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>문종</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>20230315</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22시 32분</t>
         </is>
       </c>
     </row>
